--- a/My01stProject(ParsonalAccounting)/zaman_accounting.xlsx
+++ b/My01stProject(ParsonalAccounting)/zaman_accounting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Investing Date:(তারিখ)</t>
   </si>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +434,21 @@
       <c r="A4" s="1">
         <v>42948</v>
       </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>15+15</f>
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <f>D3+C4</f>
+        <v>128</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>42949</v>
+        <v>42948</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
